--- a/biology/Médecine/Intégration_posturale/Intégration_posturale.xlsx
+++ b/biology/Médecine/Intégration_posturale/Intégration_posturale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Int%C3%A9gration_posturale</t>
+          <t>Intégration_posturale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intégration posturale est une méthode de thérapie psycho-corporelle développée par Jack Painter, basée notamment sur certaines théories développées par Wilhelm Reich.
 Selon Painter, cette technique de massage profond utilise les sensations physiques, émotionnelles et les cognitions pour défaire à la fois les tensions et désordres physiques et émotionnels.
